--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="186">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,21 +43,21 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>useless</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>useless</t>
-  </si>
-  <si>
     <t>stopped</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>difficult</t>
   </si>
   <si>
@@ -70,499 +70,499 @@
     <t>product</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>loves</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>charm</t>
+  </si>
+  <si>
+    <t>beautifully</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>mas</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>wedding</t>
+  </si>
+  <si>
+    <t>everyday</t>
+  </si>
+  <si>
+    <t>apples</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>handy</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>owned</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>hen</t>
+  </si>
+  <si>
+    <t>baking</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>dough</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>cookies</t>
+  </si>
+  <si>
+    <t>va</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>fan</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>warm</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>fits</t>
+  </si>
+  <si>
+    <t>liked</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>wash</t>
+  </si>
+  <si>
+    <t>maker</t>
+  </si>
+  <si>
+    <t>durable</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>easier</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>ox</t>
+  </si>
+  <si>
+    <t>amazon</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>peel</t>
+  </si>
+  <si>
+    <t>anyone</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>bowl</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>pot</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>purchase</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>pretty</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>purchased</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>say</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>handle</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
     <t>use</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>beautifully</t>
-  </si>
-  <si>
-    <t>loves</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>apples</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>mother</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>everyday</t>
-  </si>
-  <si>
-    <t>lemon</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>bun</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>mas</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>wedding</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>sauce</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>garlic</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>handy</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>apple</t>
-  </si>
-  <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>baking</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>cookies</t>
-  </si>
-  <si>
-    <t>owned</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>hen</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>va</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>fan</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>cu</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>durable</t>
-  </si>
-  <si>
-    <t>amazon</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>peel</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>bowl</t>
-  </si>
-  <si>
-    <t>anyone</t>
-  </si>
-  <si>
-    <t>maker</t>
-  </si>
-  <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>wash</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>ox</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>purchased</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>pot</t>
-  </si>
-  <si>
-    <t>pretty</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>purchase</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>thing</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>came</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>say</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>buy</t>
+    <t>work</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>item</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>sharp</t>
-  </si>
-  <si>
-    <t>handle</t>
-  </si>
-  <si>
-    <t>easily</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
     <t>first</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
     <t>size</t>
-  </si>
-  <si>
-    <t>work</t>
   </si>
   <si>
     <t>get</t>
@@ -937,7 +937,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
         <v>185</v>
@@ -998,13 +998,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8620689655172413</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1016,19 +1016,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3">
-        <v>0.9473684210526315</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1048,13 +1048,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7037037037037037</v>
+        <v>0.675</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4">
         <v>0.946236559139785</v>
@@ -1098,13 +1098,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1116,19 +1116,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>0.9310344827586207</v>
+        <v>0.8985507246376812</v>
       </c>
       <c r="L5">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="M5">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1148,13 +1148,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3584905660377358</v>
+        <v>0.3962264150943396</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1166,19 +1166,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>0.8985507246376812</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L6">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1198,13 +1198,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3434343434343434</v>
+        <v>0.3643410852713178</v>
       </c>
       <c r="C7">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D7">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1216,19 +1216,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>0.890625</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L7">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1248,13 +1248,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3178294573643411</v>
+        <v>0.3434343434343434</v>
       </c>
       <c r="C8">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1266,31 +1266,31 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>65</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8">
+        <v>0.8637770897832817</v>
+      </c>
+      <c r="L8">
+        <v>558</v>
+      </c>
+      <c r="M8">
+        <v>558</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>88</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8">
-        <v>0.8695652173913043</v>
-      </c>
-      <c r="L8">
-        <v>40</v>
-      </c>
-      <c r="M8">
-        <v>40</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1298,13 +1298,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2352941176470588</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1316,19 +1316,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>0.85</v>
+        <v>0.859375</v>
       </c>
       <c r="L9">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="M9">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1348,13 +1348,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.217948717948718</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1366,19 +1366,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>0.8498452012383901</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L10">
-        <v>549</v>
+        <v>36</v>
       </c>
       <c r="M10">
-        <v>549</v>
+        <v>36</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>97</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1398,13 +1398,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2054054054054054</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="C11">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D11">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1416,10 +1416,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K11">
         <v>0.8076923076923077</v>
@@ -1448,87 +1448,63 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.02197802197802198</v>
+        <v>0.02472527472527472</v>
       </c>
       <c r="C12">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>57</v>
+      </c>
+      <c r="E12">
+        <v>0.68</v>
+      </c>
+      <c r="F12">
+        <v>0.32</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>710</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12">
+        <v>0.8</v>
+      </c>
+      <c r="L12">
         <v>16</v>
       </c>
-      <c r="D12">
-        <v>55</v>
-      </c>
-      <c r="E12">
-        <v>0.71</v>
-      </c>
-      <c r="F12">
-        <v>0.29</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>712</v>
-      </c>
-      <c r="J12" s="1" t="s">
+      <c r="M12">
+        <v>16</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K12">
-        <v>0.7727272727272727</v>
-      </c>
-      <c r="L12">
-        <v>34</v>
-      </c>
-      <c r="M12">
-        <v>34</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.01425855513307985</v>
-      </c>
-      <c r="C13">
-        <v>15</v>
-      </c>
-      <c r="D13">
-        <v>120</v>
-      </c>
-      <c r="E13">
-        <v>0.88</v>
-      </c>
-      <c r="F13">
-        <v>0.12</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1037</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="K13">
-        <v>0.7692307692307693</v>
+        <v>0.7671232876712328</v>
       </c>
       <c r="L13">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="M13">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1540,21 +1516,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K14">
-        <v>0.7428571428571429</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="L14">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M14">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1566,21 +1542,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K15">
-        <v>0.7402597402597403</v>
+        <v>0.7551020408163265</v>
       </c>
       <c r="L15">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1592,21 +1568,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K16">
-        <v>0.7397260273972602</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="L16">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="M16">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1618,21 +1594,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K17">
-        <v>0.735593220338983</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L17">
-        <v>217</v>
+        <v>33</v>
       </c>
       <c r="M17">
-        <v>217</v>
+        <v>33</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1644,21 +1620,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>78</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K18">
-        <v>0.7333333333333333</v>
+        <v>0.7056277056277056</v>
       </c>
       <c r="L18">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="M18">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1670,21 +1646,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K19">
-        <v>0.7272727272727273</v>
+        <v>0.7050847457627119</v>
       </c>
       <c r="L19">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="M19">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1696,21 +1672,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>63</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K20">
-        <v>0.7142857142857143</v>
+        <v>0.7012987012987013</v>
       </c>
       <c r="L20">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="M20">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1722,21 +1698,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K21">
-        <v>0.7142857142857143</v>
+        <v>0.6875</v>
       </c>
       <c r="L21">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="M21">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1748,21 +1724,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K22">
-        <v>0.703125</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L22">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="M22">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1774,21 +1750,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K23">
-        <v>0.6923076923076923</v>
+        <v>0.6741573033707865</v>
       </c>
       <c r="L23">
-        <v>27</v>
+        <v>840</v>
       </c>
       <c r="M23">
-        <v>27</v>
+        <v>840</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1800,21 +1776,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>406</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K24">
-        <v>0.6896551724137931</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L24">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M24">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1826,21 +1802,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K25">
-        <v>0.6818181818181818</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L25">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M25">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1852,21 +1828,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K26">
-        <v>0.678714859437751</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="L26">
-        <v>845</v>
+        <v>47</v>
       </c>
       <c r="M26">
-        <v>846</v>
+        <v>47</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1875,24 +1851,24 @@
         <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>400</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>0.6666666666666666</v>
+        <v>0.6491228070175439</v>
       </c>
       <c r="L27">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M27">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1904,21 +1880,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K28">
-        <v>0.6666666666666666</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L28">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="M28">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1930,21 +1906,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>0.6619718309859155</v>
+        <v>0.6457142857142857</v>
       </c>
       <c r="L29">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="M29">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1956,21 +1932,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>24</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>0.6615384615384615</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L30">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M30">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1982,21 +1958,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>0.6470588235294118</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L31">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="M31">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2008,21 +1984,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>0.6388888888888888</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L32">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M32">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2034,21 +2010,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>0.6363636363636364</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L33">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="M33">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2060,21 +2036,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K34">
-        <v>0.6342857142857142</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L34">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="M34">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2086,21 +2062,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>64</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>0.6296296296296297</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="L35">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M35">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2112,21 +2088,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K36">
-        <v>0.625</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L36">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M36">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2138,21 +2114,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K37">
-        <v>0.6</v>
+        <v>0.5972222222222222</v>
       </c>
       <c r="L37">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="M37">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2164,21 +2140,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K38">
-        <v>0.6</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="L38">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M38">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2190,21 +2166,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K39">
-        <v>0.5769230769230769</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="L39">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="M39">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2216,21 +2192,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K40">
-        <v>0.5737704918032787</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L40">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="M40">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2242,21 +2218,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K41">
-        <v>0.5714285714285714</v>
+        <v>0.575</v>
       </c>
       <c r="L41">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="M41">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2268,21 +2244,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K42">
-        <v>0.5673076923076923</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="L42">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="M42">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2294,21 +2270,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K43">
-        <v>0.5641025641025641</v>
+        <v>0.5657894736842105</v>
       </c>
       <c r="L43">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="M43">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2320,21 +2296,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K44">
-        <v>0.5542168674698795</v>
+        <v>0.5645161290322581</v>
       </c>
       <c r="L44">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="M44">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2346,21 +2322,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K45">
-        <v>0.5508982035928144</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L45">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="M45">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2372,21 +2348,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>75</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K46">
-        <v>0.5490196078431373</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="L46">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M46">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2398,21 +2374,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K47">
-        <v>0.5384615384615384</v>
+        <v>0.5329341317365269</v>
       </c>
       <c r="L47">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="M47">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2424,21 +2400,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>30</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K48">
-        <v>0.5306122448979592</v>
+        <v>0.5081967213114754</v>
       </c>
       <c r="L48">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M48">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2450,47 +2426,47 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K49">
+        <v>0.5037593984962406</v>
+      </c>
+      <c r="L49">
+        <v>67</v>
+      </c>
+      <c r="M49">
+        <v>67</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
         <v>66</v>
-      </c>
-      <c r="K49">
-        <v>0.5299145299145299</v>
-      </c>
-      <c r="L49">
-        <v>62</v>
-      </c>
-      <c r="M49">
-        <v>62</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>55</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K50">
-        <v>0.525</v>
+        <v>0.4938271604938271</v>
       </c>
       <c r="L50">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M50">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2502,21 +2478,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K51">
-        <v>0.5185185185185185</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="L51">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="M51">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2528,21 +2504,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K52">
-        <v>0.5161290322580645</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L52">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M52">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2554,21 +2530,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K53">
-        <v>0.5112781954887218</v>
+        <v>0.48</v>
       </c>
       <c r="L53">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="M53">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2580,21 +2556,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K54">
-        <v>0.51</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L54">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="M54">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2606,21 +2582,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K55">
-        <v>0.5</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="L55">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M55">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2632,15 +2608,15 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K56">
-        <v>0.4871794871794872</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L56">
         <v>19</v>
@@ -2658,21 +2634,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K57">
-        <v>0.4857142857142857</v>
+        <v>0.4397590361445783</v>
       </c>
       <c r="L57">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="M57">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2684,21 +2660,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>18</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K58">
-        <v>0.4821428571428572</v>
+        <v>0.4390243902439024</v>
       </c>
       <c r="L58">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="M58">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2710,21 +2686,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K59">
-        <v>0.4634146341463415</v>
+        <v>0.4338235294117647</v>
       </c>
       <c r="L59">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="M59">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2736,21 +2712,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>22</v>
+        <v>231</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K60">
-        <v>0.4473684210526316</v>
+        <v>0.4186046511627907</v>
       </c>
       <c r="L60">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M60">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2762,21 +2738,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K61">
-        <v>0.4444444444444444</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L61">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M61">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2788,21 +2764,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K62">
-        <v>0.4347826086956522</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="L62">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M62">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2814,47 +2790,47 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K63">
-        <v>0.4342105263157895</v>
+        <v>0.41015625</v>
       </c>
       <c r="L63">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="M63">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>43</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K64">
-        <v>0.4337349397590362</v>
+        <v>0.4</v>
       </c>
       <c r="L64">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="M64">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2866,21 +2842,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>94</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K65">
-        <v>0.4166666666666667</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="L65">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="M65">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2892,21 +2868,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K66">
-        <v>0.4166666666666667</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="L66">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="M66">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2918,21 +2894,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>238</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K67">
-        <v>0.4166666666666667</v>
+        <v>0.3796296296296297</v>
       </c>
       <c r="L67">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="M67">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2944,21 +2920,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>35</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K68">
-        <v>0.4126984126984127</v>
+        <v>0.3753424657534247</v>
       </c>
       <c r="L68">
-        <v>26</v>
+        <v>274</v>
       </c>
       <c r="M68">
-        <v>26</v>
+        <v>274</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2970,21 +2946,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>37</v>
+        <v>456</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K69">
-        <v>0.4085603112840467</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="L69">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="M69">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2996,21 +2972,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>152</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K70">
-        <v>0.40625</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="L70">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="M70">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -3022,21 +2998,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K71">
-        <v>0.4054054054054054</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L71">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="M71">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -3048,47 +3024,47 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>66</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K72">
-        <v>0.3972602739726027</v>
+        <v>0.3533333333333333</v>
       </c>
       <c r="L72">
-        <v>290</v>
+        <v>53</v>
       </c>
       <c r="M72">
-        <v>290</v>
+        <v>54</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <v>440</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K73">
-        <v>0.391304347826087</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="L73">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M73">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -3100,21 +3076,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K74">
-        <v>0.3809523809523809</v>
+        <v>0.3458646616541353</v>
       </c>
       <c r="L74">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="M74">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -3126,47 +3102,47 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>26</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K75">
-        <v>0.3798076923076923</v>
+        <v>0.3423423423423423</v>
       </c>
       <c r="L75">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="M75">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="N75">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>129</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K76">
-        <v>0.3762376237623762</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="L76">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="M76">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -3178,21 +3154,21 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K77">
-        <v>0.3759398496240601</v>
+        <v>0.3381294964028777</v>
       </c>
       <c r="L77">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M77">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -3204,21 +3180,21 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K78">
-        <v>0.3720930232558139</v>
+        <v>0.328125</v>
       </c>
       <c r="L78">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M78">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3230,21 +3206,21 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K79">
-        <v>0.3676470588235294</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="L79">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="M79">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3256,21 +3232,21 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>43</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K80">
-        <v>0.3636363636363636</v>
+        <v>0.3110047846889952</v>
       </c>
       <c r="L80">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="M80">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3282,21 +3258,21 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>35</v>
+        <v>144</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K81">
-        <v>0.3611111111111111</v>
+        <v>0.3069306930693069</v>
       </c>
       <c r="L81">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M81">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3308,21 +3284,21 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>46</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K82">
-        <v>0.3525179856115108</v>
+        <v>0.3060344827586207</v>
       </c>
       <c r="L82">
-        <v>49</v>
+        <v>284</v>
       </c>
       <c r="M82">
-        <v>49</v>
+        <v>285</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3331,50 +3307,50 @@
         <v>0</v>
       </c>
       <c r="P82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q82">
-        <v>90</v>
+        <v>644</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K83">
-        <v>0.3478260869565217</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="L83">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M83">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="N83">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O83">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K84">
-        <v>0.3425925925925926</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="L84">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="M84">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3386,21 +3362,21 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>71</v>
+        <v>50</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K85">
-        <v>0.3333333333333333</v>
+        <v>0.3047619047619048</v>
       </c>
       <c r="L85">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M85">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3412,21 +3388,21 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>48</v>
+        <v>73</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K86">
-        <v>0.3333333333333333</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="L86">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="M86">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -3438,21 +3414,21 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>74</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K87">
-        <v>0.3333333333333333</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="L87">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M87">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -3464,21 +3440,21 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K88">
-        <v>0.3304628632938644</v>
+        <v>0.2885906040268457</v>
       </c>
       <c r="L88">
-        <v>307</v>
+        <v>43</v>
       </c>
       <c r="M88">
-        <v>307</v>
+        <v>43</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3490,21 +3466,21 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>622</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K89">
-        <v>0.3238095238095238</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L89">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M89">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -3516,21 +3492,21 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K90">
-        <v>0.3178807947019868</v>
+        <v>0.2834437086092715</v>
       </c>
       <c r="L90">
-        <v>48</v>
+        <v>214</v>
       </c>
       <c r="M90">
-        <v>48</v>
+        <v>214</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -3542,21 +3518,21 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>103</v>
+        <v>541</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K91">
-        <v>0.3137254901960784</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="L91">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M91">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -3568,21 +3544,21 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>35</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K92">
-        <v>0.2823529411764706</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="L92">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M92">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -3594,12 +3570,12 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>61</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K93">
         <v>0.2769230769230769</v>
@@ -3625,16 +3601,16 @@
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K94">
-        <v>0.2714468629961588</v>
+        <v>0.2735042735042735</v>
       </c>
       <c r="L94">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="M94">
-        <v>213</v>
+        <v>32</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -3643,18 +3619,18 @@
         <v>0</v>
       </c>
       <c r="P94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q94">
-        <v>569</v>
+        <v>85</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K95">
-        <v>0.2711864406779661</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="L95">
         <v>16</v>
@@ -3672,21 +3648,21 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K96">
-        <v>0.2692307692307692</v>
+        <v>0.2575757575757576</v>
       </c>
       <c r="L96">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="M96">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -3698,21 +3674,21 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>95</v>
+        <v>49</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K97">
-        <v>0.2684563758389262</v>
+        <v>0.2573623559539053</v>
       </c>
       <c r="L97">
-        <v>40</v>
+        <v>201</v>
       </c>
       <c r="M97">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -3721,24 +3697,24 @@
         <v>0</v>
       </c>
       <c r="P97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q97">
-        <v>109</v>
+        <v>580</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K98">
-        <v>0.2660550458715596</v>
+        <v>0.25</v>
       </c>
       <c r="L98">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M98">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -3750,21 +3726,21 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>80</v>
+        <v>54</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K99">
-        <v>0.265625</v>
+        <v>0.2476489028213166</v>
       </c>
       <c r="L99">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="M99">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -3776,21 +3752,21 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>47</v>
+        <v>240</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K100">
-        <v>0.2597402597402597</v>
+        <v>0.2461538461538462</v>
       </c>
       <c r="L100">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M100">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -3802,47 +3778,47 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>57</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K101">
-        <v>0.2596026490066225</v>
+        <v>0.2428571428571429</v>
       </c>
       <c r="L101">
-        <v>196</v>
+        <v>17</v>
       </c>
       <c r="M101">
-        <v>196</v>
+        <v>18</v>
       </c>
       <c r="N101">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O101">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q101">
-        <v>559</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K102">
-        <v>0.2558139534883721</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="L102">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M102">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -3854,21 +3830,21 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>96</v>
+        <v>65</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K103">
-        <v>0.2539184952978056</v>
+        <v>0.234375</v>
       </c>
       <c r="L103">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="M103">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="N103">
         <v>1</v>
@@ -3880,21 +3856,21 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>238</v>
+        <v>49</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K104">
-        <v>0.2530120481927711</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L104">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M104">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -3906,47 +3882,47 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>62</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K105">
-        <v>0.25</v>
+        <v>0.2236842105263158</v>
       </c>
       <c r="L105">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="M105">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="N105">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O105">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q105">
-        <v>84</v>
+        <v>59</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K106">
-        <v>0.25</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L106">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M106">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -3958,21 +3934,21 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K107">
-        <v>0.2459016393442623</v>
+        <v>0.2213740458015267</v>
       </c>
       <c r="L107">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M107">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N107">
         <v>1</v>
@@ -3984,21 +3960,21 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K108">
-        <v>0.2441860465116279</v>
+        <v>0.2207792207792208</v>
       </c>
       <c r="L108">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M108">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -4010,21 +3986,21 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K109">
-        <v>0.2365591397849462</v>
+        <v>0.2201834862385321</v>
       </c>
       <c r="L109">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M109">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N109">
         <v>1</v>
@@ -4036,21 +4012,21 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K110">
-        <v>0.2352941176470588</v>
+        <v>0.22</v>
       </c>
       <c r="L110">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M110">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N110">
         <v>1</v>
@@ -4062,47 +4038,47 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K111">
-        <v>0.2236842105263158</v>
+        <v>0.2172413793103448</v>
       </c>
       <c r="L111">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="M111">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="N111">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O111">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q111">
-        <v>59</v>
+        <v>227</v>
       </c>
     </row>
     <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K112">
-        <v>0.22</v>
+        <v>0.2168674698795181</v>
       </c>
       <c r="L112">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M112">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N112">
         <v>1</v>
@@ -4114,47 +4090,47 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="113" spans="10:17">
       <c r="J113" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K113">
-        <v>0.2118959107806691</v>
+        <v>0.2150537634408602</v>
       </c>
       <c r="L113">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="M113">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="N113">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O113">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q113">
-        <v>212</v>
+        <v>73</v>
       </c>
     </row>
     <row r="114" spans="10:17">
       <c r="J114" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K114">
-        <v>0.2112676056338028</v>
+        <v>0.2123893805309734</v>
       </c>
       <c r="L114">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M114">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N114">
         <v>1</v>
@@ -4166,73 +4142,73 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>56</v>
+        <v>89</v>
       </c>
     </row>
     <row r="115" spans="10:17">
       <c r="J115" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K115">
-        <v>0.2083333333333333</v>
+        <v>0.2118959107806691</v>
       </c>
       <c r="L115">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="M115">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="N115">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O115">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q115">
-        <v>361</v>
+        <v>212</v>
       </c>
     </row>
     <row r="116" spans="10:17">
       <c r="J116" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K116">
-        <v>0.2049180327868853</v>
+        <v>0.2093023255813954</v>
       </c>
       <c r="L116">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="M116">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="N116">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O116">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q116">
-        <v>291</v>
+        <v>102</v>
       </c>
     </row>
     <row r="117" spans="10:17">
       <c r="J117" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K117">
-        <v>0.202020202020202</v>
+        <v>0.2068126520681265</v>
       </c>
       <c r="L117">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="M117">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="N117">
         <v>1</v>
@@ -4244,47 +4220,47 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>79</v>
+        <v>326</v>
       </c>
     </row>
     <row r="118" spans="10:17">
       <c r="J118" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K118">
-        <v>0.2</v>
+        <v>0.2054794520547945</v>
       </c>
       <c r="L118">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="M118">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="N118">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="O118">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P118" t="b">
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>124</v>
+        <v>290</v>
       </c>
     </row>
     <row r="119" spans="10:17">
       <c r="J119" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K119">
-        <v>0.2</v>
+        <v>0.2017543859649123</v>
       </c>
       <c r="L119">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="M119">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="N119">
         <v>1</v>
@@ -4296,47 +4272,47 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>216</v>
+        <v>364</v>
       </c>
     </row>
     <row r="120" spans="10:17">
       <c r="J120" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K120">
-        <v>0.1995133819951338</v>
+        <v>0.2007434944237918</v>
       </c>
       <c r="L120">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="M120">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="N120">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O120">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q120">
-        <v>329</v>
+        <v>215</v>
       </c>
     </row>
     <row r="121" spans="10:17">
       <c r="J121" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K121">
-        <v>0.1984732824427481</v>
+        <v>0.2</v>
       </c>
       <c r="L121">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M121">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N121">
         <v>1</v>
@@ -4348,47 +4324,47 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="122" spans="10:17">
       <c r="J122" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K122">
-        <v>0.198019801980198</v>
+        <v>0.1976744186046512</v>
       </c>
       <c r="L122">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="M122">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N122">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O122">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q122">
-        <v>162</v>
+        <v>69</v>
       </c>
     </row>
     <row r="123" spans="10:17">
       <c r="J123" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K123">
-        <v>0.1977401129943503</v>
+        <v>0.1954545454545455</v>
       </c>
       <c r="L123">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="M123">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="N123">
         <v>1</v>
@@ -4400,47 +4376,47 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>142</v>
+        <v>354</v>
       </c>
     </row>
     <row r="124" spans="10:17">
       <c r="J124" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K124">
-        <v>0.1972318339100346</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="L124">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="M124">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="N124">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O124">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q124">
-        <v>232</v>
+        <v>132</v>
       </c>
     </row>
     <row r="125" spans="10:17">
       <c r="J125" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K125">
-        <v>0.1932773109243698</v>
+        <v>0.1878787878787879</v>
       </c>
       <c r="L125">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="M125">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="N125">
         <v>1</v>
@@ -4452,47 +4428,47 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>192</v>
+        <v>134</v>
       </c>
     </row>
     <row r="126" spans="10:17">
       <c r="J126" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K126">
-        <v>0.1913875598086124</v>
+        <v>0.1813842482100239</v>
       </c>
       <c r="L126">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M126">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="N126">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O126">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q126">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="127" spans="10:17">
       <c r="J127" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K127">
-        <v>0.1909090909090909</v>
+        <v>0.1779141104294479</v>
       </c>
       <c r="L127">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="M127">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="N127">
         <v>1</v>
@@ -4504,73 +4480,73 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>356</v>
+        <v>134</v>
       </c>
     </row>
     <row r="128" spans="10:17">
       <c r="J128" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K128">
-        <v>0.1890243902439024</v>
+        <v>0.17</v>
       </c>
       <c r="L128">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M128">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N128">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O128">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q128">
-        <v>133</v>
+        <v>166</v>
       </c>
     </row>
     <row r="129" spans="10:17">
       <c r="J129" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K129">
-        <v>0.188034188034188</v>
+        <v>0.1645569620253164</v>
       </c>
       <c r="L129">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="M129">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="N129">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O129">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q129">
-        <v>95</v>
+        <v>198</v>
       </c>
     </row>
     <row r="130" spans="10:17">
       <c r="J130" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K130">
-        <v>0.1757575757575758</v>
+        <v>0.1592920353982301</v>
       </c>
       <c r="L130">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M130">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N130">
         <v>1</v>
@@ -4582,151 +4558,151 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>136</v>
+        <v>95</v>
       </c>
     </row>
     <row r="131" spans="10:17">
       <c r="J131" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K131">
-        <v>0.1748251748251748</v>
+        <v>0.1568627450980392</v>
       </c>
       <c r="L131">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M131">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N131">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O131">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q131">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="132" spans="10:17">
       <c r="J132" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K132">
-        <v>0.1666666666666667</v>
+        <v>0.1531531531531531</v>
       </c>
       <c r="L132">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M132">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N132">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O132">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q132">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="133" spans="10:17">
       <c r="J133" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K133">
+        <v>0.1525423728813559</v>
+      </c>
+      <c r="L133">
+        <v>27</v>
+      </c>
+      <c r="M133">
+        <v>27</v>
+      </c>
+      <c r="N133">
+        <v>1</v>
+      </c>
+      <c r="O133">
+        <v>0</v>
+      </c>
+      <c r="P133" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q133">
         <v>150</v>
-      </c>
-      <c r="K133">
-        <v>0.1595092024539877</v>
-      </c>
-      <c r="L133">
-        <v>26</v>
-      </c>
-      <c r="M133">
-        <v>26</v>
-      </c>
-      <c r="N133">
-        <v>1</v>
-      </c>
-      <c r="O133">
-        <v>0</v>
-      </c>
-      <c r="P133" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q133">
-        <v>137</v>
       </c>
     </row>
     <row r="134" spans="10:17">
       <c r="J134" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K134">
-        <v>0.1538461538461539</v>
+        <v>0.1512195121951219</v>
       </c>
       <c r="L134">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="M134">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="N134">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O134">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q134">
-        <v>88</v>
+        <v>174</v>
       </c>
     </row>
     <row r="135" spans="10:17">
       <c r="J135" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K135">
-        <v>0.1531531531531531</v>
+        <v>0.1509433962264151</v>
       </c>
       <c r="L135">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M135">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N135">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="O135">
-        <v>0.11</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P135" t="b">
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>94</v>
+        <v>135</v>
       </c>
     </row>
     <row r="136" spans="10:17">
       <c r="J136" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K136">
-        <v>0.1503267973856209</v>
+        <v>0.1485148514851485</v>
       </c>
       <c r="L136">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M136">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N136">
         <v>1</v>
@@ -4738,21 +4714,21 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>130</v>
+        <v>86</v>
       </c>
     </row>
     <row r="137" spans="10:17">
       <c r="J137" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K137">
-        <v>0.1491228070175439</v>
+        <v>0.1442307692307692</v>
       </c>
       <c r="L137">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M137">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N137">
         <v>1</v>
@@ -4764,21 +4740,21 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="138" spans="10:17">
       <c r="J138" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K138">
-        <v>0.1437908496732026</v>
+        <v>0.1411290322580645</v>
       </c>
       <c r="L138">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="M138">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="N138">
         <v>1</v>
@@ -4790,255 +4766,255 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>131</v>
+        <v>213</v>
       </c>
     </row>
     <row r="139" spans="10:17">
       <c r="J139" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K139">
-        <v>0.1420765027322404</v>
+        <v>0.1397260273972603</v>
       </c>
       <c r="L139">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="M139">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="N139">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="O139">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P139" t="b">
         <v>1</v>
       </c>
       <c r="Q139">
-        <v>157</v>
+        <v>314</v>
       </c>
     </row>
     <row r="140" spans="10:17">
       <c r="J140" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K140">
-        <v>0.139367816091954</v>
+        <v>0.1364485981308411</v>
       </c>
       <c r="L140">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="M140">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="N140">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O140">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P140" t="b">
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>599</v>
+        <v>924</v>
       </c>
     </row>
     <row r="141" spans="10:17">
       <c r="J141" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K141">
-        <v>0.1265822784810127</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="L141">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M141">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N141">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O141">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q141">
-        <v>138</v>
+        <v>95</v>
       </c>
     </row>
     <row r="142" spans="10:17">
       <c r="J142" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K142">
-        <v>0.1229508196721311</v>
+        <v>0.1336206896551724</v>
       </c>
       <c r="L142">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="M142">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="N142">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O142">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q142">
-        <v>321</v>
+        <v>603</v>
       </c>
     </row>
     <row r="143" spans="10:17">
       <c r="J143" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K143">
-        <v>0.1208053691275168</v>
+        <v>0.1329479768786127</v>
       </c>
       <c r="L143">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M143">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N143">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O143">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q143">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="144" spans="10:17">
       <c r="J144" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K144">
-        <v>0.1207729468599034</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="L144">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M144">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N144">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O144">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q144">
-        <v>182</v>
+        <v>99</v>
       </c>
     </row>
     <row r="145" spans="10:17">
       <c r="J145" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K145">
-        <v>0.1206896551724138</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="L145">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M145">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N145">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O145">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q145">
-        <v>153</v>
+        <v>110</v>
       </c>
     </row>
     <row r="146" spans="10:17">
       <c r="J146" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K146">
-        <v>0.1205673758865248</v>
+        <v>0.1258741258741259</v>
       </c>
       <c r="L146">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M146">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N146">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O146">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P146" t="b">
         <v>1</v>
       </c>
       <c r="Q146">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="147" spans="10:17">
       <c r="J147" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K147">
-        <v>0.1190253045923149</v>
+        <v>0.1241830065359477</v>
       </c>
       <c r="L147">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="M147">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="N147">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O147">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q147">
-        <v>940</v>
+        <v>134</v>
       </c>
     </row>
     <row r="148" spans="10:17">
       <c r="J148" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K148">
-        <v>0.1142857142857143</v>
+        <v>0.1214285714285714</v>
       </c>
       <c r="L148">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M148">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N148">
         <v>1</v>
@@ -5050,21 +5026,21 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="149" spans="10:17">
       <c r="J149" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K149">
-        <v>0.1129032258064516</v>
+        <v>0.1189189189189189</v>
       </c>
       <c r="L149">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M149">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N149">
         <v>1</v>
@@ -5076,47 +5052,47 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>220</v>
+        <v>163</v>
       </c>
     </row>
     <row r="150" spans="10:17">
       <c r="J150" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K150">
-        <v>0.1116751269035533</v>
+        <v>0.115606936416185</v>
       </c>
       <c r="L150">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="M150">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="N150">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O150">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q150">
-        <v>350</v>
+        <v>153</v>
       </c>
     </row>
     <row r="151" spans="10:17">
       <c r="J151" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K151">
-        <v>0.1066176470588235</v>
+        <v>0.1073825503355705</v>
       </c>
       <c r="L151">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="M151">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="N151">
         <v>1</v>
@@ -5128,119 +5104,119 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>243</v>
+        <v>133</v>
       </c>
     </row>
     <row r="152" spans="10:17">
       <c r="J152" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K152">
-        <v>0.1053604436229205</v>
+        <v>0.1048593350383632</v>
       </c>
       <c r="L152">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="M152">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="N152">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="O152">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P152" t="b">
         <v>1</v>
       </c>
       <c r="Q152">
-        <v>484</v>
+        <v>350</v>
       </c>
     </row>
     <row r="153" spans="10:17">
       <c r="J153" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K153">
-        <v>0.1040462427745665</v>
+        <v>0.1008403361344538</v>
       </c>
       <c r="L153">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M153">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N153">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="O153">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P153" t="b">
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>155</v>
+        <v>214</v>
       </c>
     </row>
     <row r="154" spans="10:17">
       <c r="J154" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K154">
-        <v>0.1020408163265306</v>
+        <v>0.09641873278236915</v>
       </c>
       <c r="L154">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M154">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="N154">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O154">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P154" t="b">
         <v>1</v>
       </c>
       <c r="Q154">
-        <v>132</v>
+        <v>328</v>
       </c>
     </row>
     <row r="155" spans="10:17">
       <c r="J155" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K155">
-        <v>0.1016949152542373</v>
+        <v>0.09467455621301775</v>
       </c>
       <c r="L155">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M155">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="N155">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O155">
-        <v>0.11</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P155" t="b">
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>212</v>
+        <v>153</v>
       </c>
     </row>
     <row r="156" spans="10:17">
       <c r="J156" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K156">
-        <v>0.09740259740259741</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="L156">
         <v>15</v>
@@ -5258,85 +5234,85 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="157" spans="10:17">
       <c r="J157" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K157">
-        <v>0.09418282548476455</v>
+        <v>0.09024390243902439</v>
       </c>
       <c r="L157">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M157">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N157">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="O157">
-        <v>0.11</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P157" t="b">
         <v>1</v>
       </c>
       <c r="Q157">
-        <v>327</v>
+        <v>373</v>
       </c>
     </row>
     <row r="158" spans="10:17">
       <c r="J158" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K158">
-        <v>0.09411764705882353</v>
+        <v>0.08914728682170543</v>
       </c>
       <c r="L158">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="M158">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="N158">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O158">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q158">
-        <v>154</v>
+        <v>470</v>
       </c>
     </row>
     <row r="159" spans="10:17">
       <c r="J159" s="1" t="s">
-        <v>18</v>
+        <v>175</v>
       </c>
       <c r="K159">
-        <v>0.09194395796847636</v>
+        <v>0.08688097306689835</v>
       </c>
       <c r="L159">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M159">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="N159">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O159">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P159" t="b">
         <v>1</v>
       </c>
       <c r="Q159">
-        <v>1037</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="160" spans="10:17">
@@ -5344,25 +5320,25 @@
         <v>176</v>
       </c>
       <c r="K160">
-        <v>0.08958837772397095</v>
+        <v>0.07967032967032966</v>
       </c>
       <c r="L160">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M160">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N160">
-        <v>0.97</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O160">
-        <v>0.03000000000000003</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P160" t="b">
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>376</v>
+        <v>335</v>
       </c>
     </row>
     <row r="161" spans="10:17">
@@ -5370,25 +5346,25 @@
         <v>177</v>
       </c>
       <c r="K161">
-        <v>0.08121827411167512</v>
+        <v>0.07948243992606285</v>
       </c>
       <c r="L161">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="M161">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="N161">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O161">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P161" t="b">
         <v>1</v>
       </c>
       <c r="Q161">
-        <v>181</v>
+        <v>498</v>
       </c>
     </row>
     <row r="162" spans="10:17">
@@ -5396,25 +5372,25 @@
         <v>178</v>
       </c>
       <c r="K162">
-        <v>0.07899807321772639</v>
+        <v>0.07848837209302326</v>
       </c>
       <c r="L162">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="M162">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="N162">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="O162">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P162" t="b">
         <v>1</v>
       </c>
       <c r="Q162">
-        <v>478</v>
+        <v>317</v>
       </c>
     </row>
     <row r="163" spans="10:17">
@@ -5422,25 +5398,25 @@
         <v>179</v>
       </c>
       <c r="K163">
-        <v>0.07848837209302326</v>
+        <v>0.0777027027027027</v>
       </c>
       <c r="L163">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M163">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N163">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="O163">
-        <v>0.04000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="P163" t="b">
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>317</v>
+        <v>273</v>
       </c>
     </row>
     <row r="164" spans="10:17">
@@ -5448,25 +5424,25 @@
         <v>180</v>
       </c>
       <c r="K164">
-        <v>0.06060606060606061</v>
+        <v>0.07720588235294118</v>
       </c>
       <c r="L164">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M164">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N164">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O164">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q164">
-        <v>279</v>
+        <v>251</v>
       </c>
     </row>
     <row r="165" spans="10:17">
@@ -5474,25 +5450,25 @@
         <v>181</v>
       </c>
       <c r="K165">
-        <v>0.05397727272727273</v>
+        <v>0.07614213197969544</v>
       </c>
       <c r="L165">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M165">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N165">
-        <v>0.76</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O165">
-        <v>0.24</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P165" t="b">
         <v>1</v>
       </c>
       <c r="Q165">
-        <v>333</v>
+        <v>182</v>
       </c>
     </row>
     <row r="166" spans="10:17">
@@ -5500,25 +5476,25 @@
         <v>182</v>
       </c>
       <c r="K166">
-        <v>0.0521978021978022</v>
+        <v>0.05382436260623229</v>
       </c>
       <c r="L166">
         <v>19</v>
       </c>
       <c r="M166">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N166">
-        <v>0.73</v>
+        <v>0.79</v>
       </c>
       <c r="O166">
-        <v>0.27</v>
+        <v>0.21</v>
       </c>
       <c r="P166" t="b">
         <v>1</v>
       </c>
       <c r="Q166">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="167" spans="10:17">
@@ -5526,25 +5502,25 @@
         <v>17</v>
       </c>
       <c r="K167">
-        <v>0.05193075898801598</v>
+        <v>0.0520694259012016</v>
       </c>
       <c r="L167">
         <v>39</v>
       </c>
       <c r="M167">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N167">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="O167">
-        <v>0.29</v>
+        <v>0.32</v>
       </c>
       <c r="P167" t="b">
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="168" spans="10:17">
@@ -5552,25 +5528,25 @@
         <v>183</v>
       </c>
       <c r="K168">
-        <v>0.04390243902439024</v>
+        <v>0.04901960784313725</v>
       </c>
       <c r="L168">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M168">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N168">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O168">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q168">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="169" spans="10:17">
@@ -5578,25 +5554,25 @@
         <v>184</v>
       </c>
       <c r="K169">
-        <v>0.03017832647462277</v>
+        <v>0.02459016393442623</v>
       </c>
       <c r="L169">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M169">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N169">
-        <v>0.79</v>
+        <v>0.86</v>
       </c>
       <c r="O169">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="P169" t="b">
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
   </sheetData>
